--- a/target/test-classes/testdata/usertestdata.xlsx
+++ b/target/test-classes/testdata/usertestdata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\eclipse\eclipse-workspace\NumpyNinja-Selenium\lms_automation\src\test\resources\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9AC05A8-F404-4880-BD5B-C3346EFB1A9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F67503E9-008B-4F9F-A602-435EA3ABDAD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{B1C51ABA-3E92-4239-8245-29F0466D1FE3}"/>
   </bookViews>
@@ -30,13 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="145">
-  <si>
-    <t>Meenakshi</t>
-  </si>
-  <si>
-    <t>Sample</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="132">
   <si>
     <t>SampleLast</t>
   </si>
@@ -44,57 +38,6 @@
     <t>USA</t>
   </si>
   <si>
-    <t>5678@abc.in</t>
-  </si>
-  <si>
-    <t>m@mm.com</t>
-  </si>
-  <si>
-    <t>Mizba</t>
-  </si>
-  <si>
-    <t>Madhavi</t>
-  </si>
-  <si>
-    <t>Aksharika</t>
-  </si>
-  <si>
-    <t>Kanchana</t>
-  </si>
-  <si>
-    <t>Sample1@Sample.com</t>
-  </si>
-  <si>
-    <t>Sample2@Sample.com</t>
-  </si>
-  <si>
-    <t>Sample3@Sample.com</t>
-  </si>
-  <si>
-    <t>Sample4@Sample.com</t>
-  </si>
-  <si>
-    <t>Sample5@Sample.com</t>
-  </si>
-  <si>
-    <t>Sample6@Sample.com</t>
-  </si>
-  <si>
-    <t>Sample7@Sample.com</t>
-  </si>
-  <si>
-    <t>Samplelast</t>
-  </si>
-  <si>
-    <t>sample8@sample.com</t>
-  </si>
-  <si>
-    <t>sample9@sample.com</t>
-  </si>
-  <si>
-    <t>sample10@sample.com</t>
-  </si>
-  <si>
     <t>StatusCode</t>
   </si>
   <si>
@@ -102,12 +45,6 @@
   </si>
   <si>
     <t>User Created</t>
-  </si>
-  <si>
-    <t>ad45fb@abc.org</t>
-  </si>
-  <si>
-    <t>SS</t>
   </si>
   <si>
     <t>userLoginEmail</t>
@@ -408,9 +345,6 @@
     <t>User Visa Status is required</t>
   </si>
   <si>
-    <t>skip First name</t>
-  </si>
-  <si>
     <t>TeamTwo</t>
   </si>
   <si>
@@ -435,30 +369,6 @@
     <t>aqdgsseb@abc.com</t>
   </si>
   <si>
-    <t>skip Last name</t>
-  </si>
-  <si>
-    <t>skip Middle name</t>
-  </si>
-  <si>
-    <t>skip Location</t>
-  </si>
-  <si>
-    <t>skip Time Zone</t>
-  </si>
-  <si>
-    <t>skip LinkedIn Url</t>
-  </si>
-  <si>
-    <t>skip Under Graduate</t>
-  </si>
-  <si>
-    <t>skip Post Graduate</t>
-  </si>
-  <si>
-    <t>skip User comments</t>
-  </si>
-  <si>
     <t>skip User Visa Status</t>
   </si>
   <si>
@@ -466,13 +376,64 @@
   </si>
   <si>
     <t>skip User Role Status</t>
+  </si>
+  <si>
+    <t>skip text First name</t>
+  </si>
+  <si>
+    <t>skip text Last name</t>
+  </si>
+  <si>
+    <t>skip text Middle name</t>
+  </si>
+  <si>
+    <t>skip text Location</t>
+  </si>
+  <si>
+    <t>skip text Time Zone</t>
+  </si>
+  <si>
+    <t>skip text LinkedIn Url</t>
+  </si>
+  <si>
+    <t>skip text Under Graduate</t>
+  </si>
+  <si>
+    <t>skip text Post Graduate</t>
+  </si>
+  <si>
+    <t>skip text User comments</t>
+  </si>
+  <si>
+    <t>text color</t>
+  </si>
+  <si>
+    <t>#f44336</t>
+  </si>
+  <si>
+    <t>textboxes</t>
+  </si>
+  <si>
+    <t>userdetailsfields</t>
+  </si>
+  <si>
+    <t>cancel</t>
+  </si>
+  <si>
+    <t>submit</t>
+  </si>
+  <si>
+    <t>Cancel</t>
+  </si>
+  <si>
+    <t>Submit</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -499,6 +460,12 @@
       <sz val="22"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -899,10 +866,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47AA0240-4E7D-4B45-BDDD-9936E80CA8A2}">
-  <dimension ref="A1:P30"/>
+  <dimension ref="A1:S20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="U11" sqref="U11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -912,995 +879,920 @@
     <col min="5" max="12" width="25.54296875" customWidth="1"/>
     <col min="13" max="15" width="22.90625" customWidth="1"/>
     <col min="16" max="16" width="22" customWidth="1"/>
+    <col min="17" max="17" width="19.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>79</v>
+        <v>58</v>
       </c>
       <c r="B1" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="C1" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="D1" t="s">
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="E1" t="s">
-        <v>84</v>
+        <v>63</v>
       </c>
       <c r="F1" t="s">
-        <v>85</v>
+        <v>64</v>
       </c>
       <c r="G1" t="s">
-        <v>86</v>
+        <v>65</v>
       </c>
       <c r="H1" t="s">
+        <v>71</v>
+      </c>
+      <c r="I1" t="s">
+        <v>66</v>
+      </c>
+      <c r="J1" t="s">
+        <v>67</v>
+      </c>
+      <c r="K1" t="s">
+        <v>68</v>
+      </c>
+      <c r="L1" t="s">
+        <v>87</v>
+      </c>
+      <c r="M1" t="s">
+        <v>72</v>
+      </c>
+      <c r="N1" t="s">
+        <v>69</v>
+      </c>
+      <c r="O1" t="s">
+        <v>70</v>
+      </c>
+      <c r="P1" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>124</v>
+      </c>
+      <c r="R1" t="s">
+        <v>130</v>
+      </c>
+      <c r="S1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2" t="s">
+        <v>36</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="P2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>115</v>
+      </c>
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" t="s">
+        <v>56</v>
+      </c>
+      <c r="F3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K3" t="s">
+        <v>22</v>
+      </c>
+      <c r="L3" t="s">
+        <v>36</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="P3" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B4" t="s">
+        <v>104</v>
+      </c>
+      <c r="D4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" t="s">
+        <v>56</v>
+      </c>
+      <c r="F4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I4" t="s">
+        <v>20</v>
+      </c>
+      <c r="J4" t="s">
+        <v>21</v>
+      </c>
+      <c r="K4" t="s">
+        <v>22</v>
+      </c>
+      <c r="L4" t="s">
+        <v>36</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="P4" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>117</v>
+      </c>
+      <c r="B5" t="s">
+        <v>106</v>
+      </c>
+      <c r="C5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I5" t="s">
+        <v>20</v>
+      </c>
+      <c r="J5" t="s">
+        <v>21</v>
+      </c>
+      <c r="K5" t="s">
+        <v>22</v>
+      </c>
+      <c r="L5" t="s">
+        <v>36</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="P5" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>118</v>
+      </c>
+      <c r="B6" t="s">
+        <v>107</v>
+      </c>
+      <c r="C6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" t="s">
+        <v>56</v>
+      </c>
+      <c r="G6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I6" t="s">
+        <v>20</v>
+      </c>
+      <c r="J6" t="s">
+        <v>21</v>
+      </c>
+      <c r="K6" t="s">
+        <v>22</v>
+      </c>
+      <c r="L6" t="s">
+        <v>36</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="P6" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>119</v>
+      </c>
+      <c r="B7" t="s">
+        <v>108</v>
+      </c>
+      <c r="C7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" t="s">
+        <v>56</v>
+      </c>
+      <c r="F7" t="s">
+        <v>91</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L7" t="s">
+        <v>36</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="P7" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>120</v>
+      </c>
+      <c r="B8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" t="s">
+        <v>56</v>
+      </c>
+      <c r="F8" t="s">
         <v>92</v>
       </c>
-      <c r="I1" t="s">
-        <v>87</v>
-      </c>
-      <c r="J1" t="s">
-        <v>88</v>
-      </c>
-      <c r="K1" t="s">
-        <v>89</v>
-      </c>
-      <c r="L1" t="s">
-        <v>108</v>
-      </c>
-      <c r="M1" t="s">
-        <v>93</v>
-      </c>
-      <c r="N1" t="s">
-        <v>90</v>
-      </c>
-      <c r="O1" t="s">
-        <v>91</v>
-      </c>
-      <c r="P1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>80</v>
-      </c>
-      <c r="B2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E2" t="s">
-        <v>77</v>
-      </c>
-      <c r="F2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G2" t="s">
-        <v>39</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="I2" t="s">
-        <v>41</v>
-      </c>
-      <c r="J2" t="s">
-        <v>42</v>
-      </c>
-      <c r="K2" t="s">
-        <v>43</v>
-      </c>
-      <c r="L2" t="s">
-        <v>57</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="P2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>125</v>
-      </c>
-      <c r="C3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D3" t="s">
-        <v>38</v>
-      </c>
-      <c r="E3" t="s">
-        <v>77</v>
-      </c>
-      <c r="F3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G3" t="s">
-        <v>39</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="I3" t="s">
-        <v>41</v>
-      </c>
-      <c r="J3" t="s">
-        <v>42</v>
-      </c>
-      <c r="K3" t="s">
-        <v>43</v>
-      </c>
-      <c r="L3" t="s">
-        <v>57</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="P3" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>134</v>
-      </c>
-      <c r="B4" t="s">
-        <v>126</v>
-      </c>
-      <c r="D4" t="s">
-        <v>38</v>
-      </c>
-      <c r="E4" t="s">
-        <v>77</v>
-      </c>
-      <c r="F4" t="s">
-        <v>3</v>
-      </c>
-      <c r="G4" t="s">
-        <v>39</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="I4" t="s">
-        <v>41</v>
-      </c>
-      <c r="J4" t="s">
-        <v>42</v>
-      </c>
-      <c r="K4" t="s">
-        <v>43</v>
-      </c>
-      <c r="L4" t="s">
-        <v>57</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="N4" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="O4" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="P4" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>135</v>
-      </c>
-      <c r="B5" t="s">
-        <v>128</v>
-      </c>
-      <c r="C5" t="s">
-        <v>38</v>
-      </c>
-      <c r="D5" t="s">
-        <v>38</v>
-      </c>
-      <c r="F5" t="s">
-        <v>3</v>
-      </c>
-      <c r="G5" t="s">
-        <v>39</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="I5" t="s">
-        <v>41</v>
-      </c>
-      <c r="J5" t="s">
-        <v>42</v>
-      </c>
-      <c r="K5" t="s">
-        <v>43</v>
-      </c>
-      <c r="L5" t="s">
-        <v>57</v>
-      </c>
-      <c r="M5" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="N5" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="O5" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="P5" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>136</v>
-      </c>
-      <c r="B6" t="s">
-        <v>129</v>
-      </c>
-      <c r="C6" t="s">
-        <v>38</v>
-      </c>
-      <c r="D6" t="s">
-        <v>38</v>
-      </c>
-      <c r="E6" t="s">
-        <v>77</v>
-      </c>
-      <c r="G6" t="s">
-        <v>39</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="I6" t="s">
-        <v>41</v>
-      </c>
-      <c r="J6" t="s">
-        <v>42</v>
-      </c>
-      <c r="K6" t="s">
-        <v>43</v>
-      </c>
-      <c r="L6" t="s">
-        <v>57</v>
-      </c>
-      <c r="M6" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="N6" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="O6" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="P6" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>137</v>
-      </c>
-      <c r="B7" t="s">
-        <v>130</v>
-      </c>
-      <c r="C7" t="s">
-        <v>38</v>
-      </c>
-      <c r="D7" t="s">
-        <v>38</v>
-      </c>
-      <c r="E7" t="s">
-        <v>77</v>
-      </c>
-      <c r="F7" t="s">
-        <v>112</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="I7" t="s">
-        <v>41</v>
-      </c>
-      <c r="J7" t="s">
-        <v>42</v>
-      </c>
-      <c r="K7" t="s">
-        <v>43</v>
-      </c>
-      <c r="L7" t="s">
-        <v>57</v>
-      </c>
-      <c r="M7" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="N7" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="O7" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="P7" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>138</v>
-      </c>
-      <c r="B8" t="s">
-        <v>37</v>
-      </c>
-      <c r="C8" t="s">
-        <v>38</v>
-      </c>
-      <c r="D8" t="s">
-        <v>38</v>
-      </c>
-      <c r="E8" t="s">
-        <v>77</v>
-      </c>
-      <c r="F8" t="s">
-        <v>113</v>
-      </c>
       <c r="G8" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="H8" s="1"/>
       <c r="I8" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="J8" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="K8" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="L8" t="s">
-        <v>57</v>
+        <v>36</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>76</v>
+        <v>55</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="P8" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
+        <v>98</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>139</v>
+        <v>121</v>
       </c>
       <c r="B9" t="s">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="C9" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="D9" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="E9" t="s">
-        <v>77</v>
+        <v>56</v>
       </c>
       <c r="F9" t="s">
-        <v>114</v>
+        <v>93</v>
       </c>
       <c r="G9" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="J9" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="K9" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="L9" t="s">
-        <v>57</v>
+        <v>36</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>76</v>
+        <v>55</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="O9" s="1" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="P9" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
+        <v>99</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>140</v>
+        <v>122</v>
       </c>
       <c r="B10" t="s">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="C10" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="D10" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="E10" t="s">
-        <v>77</v>
+        <v>56</v>
       </c>
       <c r="F10" t="s">
-        <v>114</v>
+        <v>93</v>
       </c>
       <c r="G10" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="I10" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="K10" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="L10" t="s">
-        <v>57</v>
+        <v>36</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>76</v>
+        <v>55</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="O10" s="1" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="P10" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
+        <v>100</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>141</v>
+        <v>123</v>
       </c>
       <c r="B11" t="s">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="C11" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="D11" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="E11" t="s">
-        <v>77</v>
+        <v>56</v>
       </c>
       <c r="F11" t="s">
-        <v>114</v>
+        <v>93</v>
       </c>
       <c r="G11" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="I11" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="J11" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="L11" t="s">
-        <v>57</v>
+        <v>36</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>76</v>
+        <v>55</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="O11" s="1" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="P11" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
+        <v>102</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>142</v>
+        <v>112</v>
       </c>
       <c r="B12" t="s">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="C12" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="D12" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="E12" t="s">
-        <v>77</v>
+        <v>56</v>
       </c>
       <c r="F12" t="s">
-        <v>114</v>
+        <v>93</v>
       </c>
       <c r="G12" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="I12" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="J12" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="K12" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>76</v>
+        <v>55</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="O12" s="1" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="P12" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
+        <v>103</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>143</v>
+        <v>113</v>
       </c>
       <c r="B13" t="s">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="C13" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="D13" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="E13" t="s">
-        <v>77</v>
+        <v>56</v>
       </c>
       <c r="F13" t="s">
-        <v>114</v>
+        <v>93</v>
       </c>
       <c r="G13" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="I13" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="J13" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="K13" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="L13" t="s">
-        <v>57</v>
+        <v>36</v>
       </c>
       <c r="M13" s="1"/>
       <c r="N13" s="1" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="O13" s="1" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="P13" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
+        <v>101</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>144</v>
+        <v>114</v>
       </c>
       <c r="B14" t="s">
-        <v>127</v>
+        <v>105</v>
       </c>
       <c r="C14" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="E14" t="s">
-        <v>77</v>
+        <v>56</v>
       </c>
       <c r="F14" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G14" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="I14" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="J14" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="K14" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="L14" t="s">
-        <v>57</v>
+        <v>36</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>76</v>
+        <v>55</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="O14" s="1" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="P14" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
+        <v>94</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>110</v>
+        <v>89</v>
       </c>
       <c r="H15" s="1"/>
       <c r="M15" s="1"/>
       <c r="N15" s="1"/>
       <c r="O15" s="1"/>
       <c r="P15" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>131</v>
-      </c>
       <c r="B16" t="s">
-        <v>132</v>
+        <v>110</v>
       </c>
       <c r="C16" t="s">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="D16" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="E16">
         <v>1139367260</v>
       </c>
       <c r="F16" t="s">
-        <v>112</v>
+        <v>91</v>
       </c>
       <c r="G16" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="I16" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="J16" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="K16" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="L16" t="s">
-        <v>57</v>
+        <v>36</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>133</v>
+        <v>111</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="O16" s="1" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="P16" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="17" spans="2:16" x14ac:dyDescent="0.35">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>126</v>
+      </c>
       <c r="B17" t="s">
-        <v>2</v>
+        <v>60</v>
       </c>
       <c r="C17" t="s">
-        <v>2</v>
-      </c>
-      <c r="E17">
-        <v>1994566549</v>
-      </c>
-      <c r="M17" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="N17" s="1"/>
-      <c r="O17" s="1"/>
-      <c r="P17" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="18" spans="2:16" x14ac:dyDescent="0.35">
+        <v>61</v>
+      </c>
+      <c r="D17" t="s">
+        <v>62</v>
+      </c>
+      <c r="E17" t="s">
+        <v>63</v>
+      </c>
+      <c r="F17" t="s">
+        <v>64</v>
+      </c>
+      <c r="G17" t="s">
+        <v>65</v>
+      </c>
+      <c r="H17" t="s">
+        <v>71</v>
+      </c>
+      <c r="I17" t="s">
+        <v>66</v>
+      </c>
+      <c r="J17" t="s">
+        <v>67</v>
+      </c>
+      <c r="K17" t="s">
+        <v>68</v>
+      </c>
+      <c r="L17" t="s">
+        <v>87</v>
+      </c>
+      <c r="M17" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>127</v>
+      </c>
       <c r="B18" t="s">
-        <v>2</v>
+        <v>60</v>
       </c>
       <c r="C18" t="s">
-        <v>2</v>
-      </c>
-      <c r="E18">
-        <v>1203456789</v>
-      </c>
-      <c r="M18" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="N18" s="1"/>
-      <c r="O18" s="1"/>
-    </row>
-    <row r="19" spans="2:16" x14ac:dyDescent="0.35">
-      <c r="B19" t="s">
-        <v>25</v>
-      </c>
-      <c r="C19" t="s">
-        <v>25</v>
-      </c>
-      <c r="E19">
-        <v>1234567891</v>
-      </c>
-      <c r="M19" s="1" t="s">
-        <v>5</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="D18" t="s">
+        <v>62</v>
+      </c>
+      <c r="E18" t="s">
+        <v>63</v>
+      </c>
+      <c r="F18" t="s">
+        <v>64</v>
+      </c>
+      <c r="G18" t="s">
+        <v>65</v>
+      </c>
+      <c r="H18" t="s">
+        <v>71</v>
+      </c>
+      <c r="I18" t="s">
+        <v>66</v>
+      </c>
+      <c r="J18" t="s">
+        <v>67</v>
+      </c>
+      <c r="K18" t="s">
+        <v>68</v>
+      </c>
+      <c r="L18" t="s">
+        <v>87</v>
+      </c>
+      <c r="M18" t="s">
+        <v>72</v>
+      </c>
+      <c r="N18" t="s">
+        <v>69</v>
+      </c>
+      <c r="O18" t="s">
+        <v>70</v>
+      </c>
+      <c r="R18" t="s">
+        <v>128</v>
+      </c>
+      <c r="S18" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="H19" s="1"/>
+      <c r="M19" s="1"/>
       <c r="N19" s="1"/>
       <c r="O19" s="1"/>
     </row>
-    <row r="20" spans="2:16" x14ac:dyDescent="0.35">
-      <c r="B20" t="s">
-        <v>2</v>
-      </c>
-      <c r="C20" t="s">
-        <v>2</v>
-      </c>
-      <c r="E20">
-        <v>1234567892</v>
-      </c>
-      <c r="M20" s="1" t="s">
-        <v>10</v>
-      </c>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="M20" s="1"/>
       <c r="N20" s="1"/>
       <c r="O20" s="1"/>
     </row>
-    <row r="21" spans="2:16" x14ac:dyDescent="0.35">
-      <c r="B21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C21" t="s">
-        <v>8</v>
-      </c>
-      <c r="E21">
-        <v>1234567893</v>
-      </c>
-      <c r="M21" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="N21" s="1"/>
-      <c r="O21" s="1"/>
-    </row>
-    <row r="22" spans="2:16" x14ac:dyDescent="0.35">
-      <c r="B22" t="s">
-        <v>9</v>
-      </c>
-      <c r="C22" t="s">
-        <v>9</v>
-      </c>
-      <c r="E22">
-        <v>1234567894</v>
-      </c>
-      <c r="M22" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N22" s="1"/>
-      <c r="O22" s="1"/>
-    </row>
-    <row r="23" spans="2:16" x14ac:dyDescent="0.35">
-      <c r="B23" t="s">
-        <v>1</v>
-      </c>
-      <c r="C23" t="s">
-        <v>1</v>
-      </c>
-      <c r="E23">
-        <v>1234567895</v>
-      </c>
-      <c r="M23" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="N23" s="1"/>
-      <c r="O23" s="1"/>
-    </row>
-    <row r="24" spans="2:16" x14ac:dyDescent="0.35">
-      <c r="B24" t="s">
-        <v>0</v>
-      </c>
-      <c r="C24" t="s">
-        <v>0</v>
-      </c>
-      <c r="E24">
-        <v>1234567896</v>
-      </c>
-      <c r="M24" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="N24" s="1"/>
-      <c r="O24" s="1"/>
-    </row>
-    <row r="25" spans="2:16" x14ac:dyDescent="0.35">
-      <c r="B25" t="s">
-        <v>6</v>
-      </c>
-      <c r="C25" t="s">
-        <v>6</v>
-      </c>
-      <c r="E25">
-        <v>1234567897</v>
-      </c>
-      <c r="M25" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="N25" s="1"/>
-      <c r="O25" s="1"/>
-    </row>
-    <row r="26" spans="2:16" x14ac:dyDescent="0.35">
-      <c r="B26" t="s">
-        <v>7</v>
-      </c>
-      <c r="C26" t="s">
-        <v>7</v>
-      </c>
-      <c r="E26">
-        <v>1234567898</v>
-      </c>
-      <c r="M26" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="N26" s="1"/>
-      <c r="O26" s="1"/>
-    </row>
-    <row r="27" spans="2:16" x14ac:dyDescent="0.35">
-      <c r="B27" t="s">
-        <v>17</v>
-      </c>
-      <c r="C27" t="s">
-        <v>17</v>
-      </c>
-      <c r="E27">
-        <v>1234567899</v>
-      </c>
-      <c r="M27" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="N27" s="1"/>
-      <c r="O27" s="1"/>
-    </row>
-    <row r="28" spans="2:16" x14ac:dyDescent="0.35">
-      <c r="B28" t="s">
-        <v>17</v>
-      </c>
-      <c r="C28" t="s">
-        <v>17</v>
-      </c>
-      <c r="E28">
-        <v>1234567809</v>
-      </c>
-      <c r="M28" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="N28" s="1"/>
-      <c r="O28" s="1"/>
-    </row>
-    <row r="29" spans="2:16" x14ac:dyDescent="0.35">
-      <c r="B29" t="s">
-        <v>17</v>
-      </c>
-      <c r="C29" t="s">
-        <v>17</v>
-      </c>
-      <c r="E29">
-        <v>1234567808</v>
-      </c>
-      <c r="M29" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="N29" s="1"/>
-      <c r="O29" s="1"/>
-    </row>
-    <row r="30" spans="2:16" x14ac:dyDescent="0.35">
-      <c r="M30" s="1"/>
-      <c r="N30" s="1"/>
-      <c r="O30" s="1"/>
-    </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="M2" r:id="rId1" xr:uid="{40159C53-F4E6-4203-9253-F0A8D36FA8E6}"/>
-    <hyperlink ref="M17" r:id="rId2" xr:uid="{642B3A79-CFDF-4801-A8C1-DC203544F2DF}"/>
-    <hyperlink ref="M18" r:id="rId3" xr:uid="{3E27CC47-C17E-4BD7-B7C5-4D2487E76FBC}"/>
-    <hyperlink ref="M19" r:id="rId4" xr:uid="{141A19A3-6FBC-4C3A-AE29-07F11F281DB8}"/>
-    <hyperlink ref="M20" r:id="rId5" xr:uid="{345B401F-0FC1-4520-AEE6-D6C132E0CE89}"/>
-    <hyperlink ref="M21:M26" r:id="rId6" display="Sample@Sample.com" xr:uid="{493C8817-E100-4AB3-8BFE-0F22DBCAF3E4}"/>
-    <hyperlink ref="M21" r:id="rId7" xr:uid="{95ED8D77-67A4-4C1E-BB89-80B36B43AE3F}"/>
-    <hyperlink ref="M22" r:id="rId8" xr:uid="{3448D0C4-19E7-4D1D-9514-653B77805ED7}"/>
-    <hyperlink ref="M23" r:id="rId9" xr:uid="{6BC65C6D-E4C1-4D11-A58D-7E5C8130FAAA}"/>
-    <hyperlink ref="M24" r:id="rId10" xr:uid="{49BFFDAB-202B-4500-A4B4-9B1A9D323711}"/>
-    <hyperlink ref="M25" r:id="rId11" xr:uid="{89530B61-0612-4C47-9AFE-9576907EBBF1}"/>
-    <hyperlink ref="M26" r:id="rId12" xr:uid="{B89A848F-AA92-4A9C-8970-68728BF986B1}"/>
-    <hyperlink ref="M27" r:id="rId13" xr:uid="{94A9F1EF-F91E-4FDD-A07A-84DF4CECAED6}"/>
-    <hyperlink ref="M28" r:id="rId14" xr:uid="{B16E3B60-400C-4EEA-9B44-68467D6B530E}"/>
-    <hyperlink ref="M29:M30" r:id="rId15" display="sample9@sample.com" xr:uid="{0BF1F079-FE55-4017-A95F-D160A11F5B5D}"/>
-    <hyperlink ref="M29" r:id="rId16" xr:uid="{DD2A98E4-C7EB-4DD5-B653-379A606ADD38}"/>
-    <hyperlink ref="H2" r:id="rId17" xr:uid="{571EDCCE-FC5B-417C-AA30-F32CE06CAC18}"/>
-    <hyperlink ref="M3" r:id="rId18" xr:uid="{CD418853-C9E8-40FA-8129-A630E1678CFF}"/>
-    <hyperlink ref="H3" r:id="rId19" xr:uid="{C6E8536B-2300-445E-83A7-C82705F5ABBE}"/>
-    <hyperlink ref="M4" r:id="rId20" xr:uid="{8B235457-3B83-4BB9-9B00-E6D0E86A1320}"/>
-    <hyperlink ref="H4" r:id="rId21" xr:uid="{D8F0CB93-48C6-40C0-B6E6-107726CD1108}"/>
-    <hyperlink ref="M14" r:id="rId22" xr:uid="{EA4E4C74-534C-485F-9D84-3381E51209B1}"/>
-    <hyperlink ref="H14" r:id="rId23" xr:uid="{B7C96E4F-5A91-4CAA-89B2-1EF3AEFECCF7}"/>
-    <hyperlink ref="M5" r:id="rId24" xr:uid="{97433741-1138-464C-905E-4C3B2163CE26}"/>
-    <hyperlink ref="H5" r:id="rId25" xr:uid="{09A84E83-52C8-442A-B053-EDF7B3D6C1D8}"/>
-    <hyperlink ref="M6" r:id="rId26" xr:uid="{39271BC9-C23E-4EA9-8884-127AC0D704FB}"/>
-    <hyperlink ref="H6" r:id="rId27" xr:uid="{6A7B3276-1AF1-4BB7-BF9F-D574165A15A5}"/>
-    <hyperlink ref="M7" r:id="rId28" xr:uid="{D9A4845A-FCB6-406D-AE9D-9A5A4AE9632D}"/>
-    <hyperlink ref="M8" r:id="rId29" xr:uid="{927BE44D-6DF1-49F5-B7BC-CD2A3DF70F9A}"/>
-    <hyperlink ref="M9" r:id="rId30" xr:uid="{49E4F761-7624-4B87-910C-A092C376BD50}"/>
-    <hyperlink ref="M10" r:id="rId31" xr:uid="{265FCA21-CF44-45A7-AB36-5FC716B78B2A}"/>
-    <hyperlink ref="M11" r:id="rId32" xr:uid="{1BAA0765-A95E-4FBB-923B-0C474D4B206C}"/>
-    <hyperlink ref="M12" r:id="rId33" xr:uid="{D984BA1D-5060-453D-AAD9-9B2E43FD6E32}"/>
-    <hyperlink ref="H7" r:id="rId34" xr:uid="{FFA70586-3912-4CF9-81E7-9A668E324D66}"/>
-    <hyperlink ref="H9" r:id="rId35" xr:uid="{74FD5586-F678-4AD5-938D-E90B11661EBF}"/>
-    <hyperlink ref="H10" r:id="rId36" xr:uid="{8FAE19CF-9215-4BD2-B27E-A95CB040C825}"/>
-    <hyperlink ref="H11" r:id="rId37" xr:uid="{873DA314-7B0B-4E93-A687-4E43E6BEE8A4}"/>
-    <hyperlink ref="H12" r:id="rId38" xr:uid="{70BB04AC-10A3-42DC-97AF-7885BCE9601E}"/>
-    <hyperlink ref="H13" r:id="rId39" xr:uid="{04FE1C3C-468D-44B9-9F53-836087EC0644}"/>
-    <hyperlink ref="M16" r:id="rId40" xr:uid="{BAB20FF1-7197-48C9-A6AA-759C81588C49}"/>
-    <hyperlink ref="H16" r:id="rId41" xr:uid="{76ABD217-D177-4D66-93DB-94ABDA9C2438}"/>
+    <hyperlink ref="M20" r:id="rId2" display="sample9@sample.com" xr:uid="{0BF1F079-FE55-4017-A95F-D160A11F5B5D}"/>
+    <hyperlink ref="H2" r:id="rId3" xr:uid="{571EDCCE-FC5B-417C-AA30-F32CE06CAC18}"/>
+    <hyperlink ref="M3" r:id="rId4" xr:uid="{CD418853-C9E8-40FA-8129-A630E1678CFF}"/>
+    <hyperlink ref="H3" r:id="rId5" xr:uid="{C6E8536B-2300-445E-83A7-C82705F5ABBE}"/>
+    <hyperlink ref="M4" r:id="rId6" xr:uid="{8B235457-3B83-4BB9-9B00-E6D0E86A1320}"/>
+    <hyperlink ref="H4" r:id="rId7" xr:uid="{D8F0CB93-48C6-40C0-B6E6-107726CD1108}"/>
+    <hyperlink ref="M14" r:id="rId8" xr:uid="{EA4E4C74-534C-485F-9D84-3381E51209B1}"/>
+    <hyperlink ref="H14" r:id="rId9" xr:uid="{B7C96E4F-5A91-4CAA-89B2-1EF3AEFECCF7}"/>
+    <hyperlink ref="M5" r:id="rId10" xr:uid="{97433741-1138-464C-905E-4C3B2163CE26}"/>
+    <hyperlink ref="H5" r:id="rId11" xr:uid="{09A84E83-52C8-442A-B053-EDF7B3D6C1D8}"/>
+    <hyperlink ref="M6" r:id="rId12" xr:uid="{39271BC9-C23E-4EA9-8884-127AC0D704FB}"/>
+    <hyperlink ref="H6" r:id="rId13" xr:uid="{6A7B3276-1AF1-4BB7-BF9F-D574165A15A5}"/>
+    <hyperlink ref="M7" r:id="rId14" xr:uid="{D9A4845A-FCB6-406D-AE9D-9A5A4AE9632D}"/>
+    <hyperlink ref="M8" r:id="rId15" xr:uid="{927BE44D-6DF1-49F5-B7BC-CD2A3DF70F9A}"/>
+    <hyperlink ref="M9" r:id="rId16" xr:uid="{49E4F761-7624-4B87-910C-A092C376BD50}"/>
+    <hyperlink ref="M10" r:id="rId17" xr:uid="{265FCA21-CF44-45A7-AB36-5FC716B78B2A}"/>
+    <hyperlink ref="M11" r:id="rId18" xr:uid="{1BAA0765-A95E-4FBB-923B-0C474D4B206C}"/>
+    <hyperlink ref="M12" r:id="rId19" xr:uid="{D984BA1D-5060-453D-AAD9-9B2E43FD6E32}"/>
+    <hyperlink ref="H7" r:id="rId20" xr:uid="{FFA70586-3912-4CF9-81E7-9A668E324D66}"/>
+    <hyperlink ref="H9" r:id="rId21" xr:uid="{74FD5586-F678-4AD5-938D-E90B11661EBF}"/>
+    <hyperlink ref="H10" r:id="rId22" xr:uid="{8FAE19CF-9215-4BD2-B27E-A95CB040C825}"/>
+    <hyperlink ref="H11" r:id="rId23" xr:uid="{873DA314-7B0B-4E93-A687-4E43E6BEE8A4}"/>
+    <hyperlink ref="H12" r:id="rId24" xr:uid="{70BB04AC-10A3-42DC-97AF-7885BCE9601E}"/>
+    <hyperlink ref="H13" r:id="rId25" xr:uid="{04FE1C3C-468D-44B9-9F53-836087EC0644}"/>
+    <hyperlink ref="M16" r:id="rId26" xr:uid="{BAB20FF1-7197-48C9-A6AA-759C81588C49}"/>
+    <hyperlink ref="H16" r:id="rId27" xr:uid="{76ABD217-D177-4D66-93DB-94ABDA9C2438}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1927,51 +1819,51 @@
   <sheetData>
     <row r="1" spans="1:8" ht="27.5" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
-        <v>94</v>
+        <v>73</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>96</v>
+        <v>75</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>99</v>
+        <v>78</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="H1" s="7" t="s">
-        <v>105</v>
+        <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:8" s="5" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
-        <v>107</v>
+        <v>86</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>100</v>
+        <v>79</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>101</v>
+        <v>80</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>102</v>
+        <v>81</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>103</v>
+        <v>82</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>104</v>
+        <v>83</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>106</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -2010,147 +1902,147 @@
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>71</v>
+        <v>50</v>
       </c>
       <c r="B1" t="s">
-        <v>70</v>
+        <v>49</v>
       </c>
       <c r="C1" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="D1" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="E1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M1" t="s">
+        <v>5</v>
+      </c>
+      <c r="N1" t="s">
+        <v>24</v>
+      </c>
+      <c r="O1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P1" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>29</v>
+      </c>
+      <c r="R1" t="s">
+        <v>33</v>
+      </c>
+      <c r="S1" t="s">
         <v>32</v>
       </c>
-      <c r="F1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G1" t="s">
-        <v>44</v>
-      </c>
-      <c r="H1" t="s">
-        <v>34</v>
-      </c>
-      <c r="I1" t="s">
-        <v>55</v>
-      </c>
-      <c r="J1" t="s">
-        <v>29</v>
-      </c>
-      <c r="K1" t="s">
-        <v>28</v>
-      </c>
-      <c r="L1" t="s">
-        <v>27</v>
-      </c>
-      <c r="M1" t="s">
-        <v>26</v>
-      </c>
-      <c r="N1" t="s">
-        <v>45</v>
-      </c>
-      <c r="O1" t="s">
-        <v>46</v>
-      </c>
-      <c r="P1" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>50</v>
-      </c>
-      <c r="R1" t="s">
-        <v>54</v>
-      </c>
-      <c r="S1" t="s">
-        <v>53</v>
-      </c>
       <c r="T1" t="s">
-        <v>59</v>
+        <v>38</v>
       </c>
       <c r="U1" t="s">
-        <v>60</v>
+        <v>39</v>
       </c>
       <c r="V1" t="s">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="W1" t="s">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="X1" t="s">
-        <v>21</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>78</v>
+        <v>57</v>
       </c>
       <c r="B2" t="s">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="C2" t="s">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="D2" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="E2">
         <v>1139467860</v>
       </c>
       <c r="F2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G2" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="I2" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="J2" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="K2" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="L2" t="s">
-        <v>57</v>
+        <v>36</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>69</v>
+        <v>48</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>56</v>
+        <v>35</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="T2">
         <v>201</v>
       </c>
       <c r="U2" t="s">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="V2" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="W2" t="s">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="X2">
         <v>400</v>
@@ -2158,73 +2050,73 @@
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>78</v>
+        <v>57</v>
       </c>
       <c r="B3" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="D3" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="E3">
         <v>1139467860</v>
       </c>
       <c r="F3" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G3" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="I3" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="J3" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="K3" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="L3" t="s">
-        <v>57</v>
+        <v>36</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>69</v>
+        <v>48</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>56</v>
+        <v>35</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="S3" s="1" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="T3">
         <v>201</v>
       </c>
       <c r="U3" t="s">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="V3" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="W3" t="s">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="X3">
         <v>400</v>
@@ -2259,79 +2151,79 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>58</v>
+        <v>37</v>
       </c>
       <c r="B1" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="C1" t="s">
-        <v>59</v>
+        <v>38</v>
       </c>
       <c r="D1" t="s">
-        <v>60</v>
+        <v>39</v>
       </c>
       <c r="E1" t="s">
-        <v>61</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>62</v>
+        <v>41</v>
       </c>
       <c r="B2" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="C2">
         <v>200</v>
       </c>
       <c r="D2" t="s">
-        <v>22</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="B3" t="s">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="C3">
         <v>200</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>64</v>
+        <v>43</v>
       </c>
       <c r="B4" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>64</v>
+        <v>43</v>
       </c>
       <c r="B5" t="s">
-        <v>63</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>62</v>
+        <v>41</v>
       </c>
       <c r="B6" t="s">
-        <v>63</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="B7" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -2358,262 +2250,262 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="B1" t="s">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="C1" t="s">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="D1" t="s">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="E1" t="s">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="F1" t="s">
-        <v>59</v>
+        <v>38</v>
       </c>
       <c r="G1" t="s">
-        <v>60</v>
+        <v>39</v>
       </c>
       <c r="H1" t="s">
-        <v>61</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="B2" t="s">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>62</v>
+        <v>41</v>
       </c>
       <c r="D2" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="E2" t="s">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="F2">
         <v>200</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="H2" t="s">
-        <v>72</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>64</v>
+        <v>43</v>
       </c>
       <c r="D3" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="E3" t="s">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="F3">
         <v>200</v>
       </c>
       <c r="G3" t="s">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="H3" t="s">
-        <v>72</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="B4" t="s">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="D4" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="E4" t="s">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="F4">
         <v>200</v>
       </c>
       <c r="G4" t="s">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="H4" t="s">
-        <v>72</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>65</v>
+        <v>44</v>
       </c>
       <c r="B5" t="s">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>62</v>
+        <v>41</v>
       </c>
       <c r="D5" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="E5" t="s">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="F5">
         <v>200</v>
       </c>
       <c r="G5" t="s">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="H5" t="s">
-        <v>72</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="B6" t="s">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="D6" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="E6" t="s">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="F6">
         <v>200</v>
       </c>
       <c r="G6" t="s">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="H6" t="s">
-        <v>72</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="B7" t="s">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>64</v>
+        <v>43</v>
       </c>
       <c r="D7" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="E7" t="s">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="F7">
         <v>200</v>
       </c>
       <c r="G7" t="s">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="H7" t="s">
-        <v>72</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="B8" t="s">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>62</v>
+        <v>41</v>
       </c>
       <c r="D8" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="E8" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="F8">
         <v>200</v>
       </c>
       <c r="G8" t="s">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="H8" t="s">
-        <v>72</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="B9" t="s">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="D9" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="E9" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="F9">
         <v>200</v>
       </c>
       <c r="G9" t="s">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="H9" t="s">
-        <v>72</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="B10" t="s">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>64</v>
+        <v>43</v>
       </c>
       <c r="D10" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="E10" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="F10">
         <v>200</v>
       </c>
       <c r="G10" t="s">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="H10" t="s">
-        <v>72</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -2639,28 +2531,28 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="B1" t="s">
-        <v>54</v>
+        <v>33</v>
       </c>
       <c r="C1" t="s">
-        <v>67</v>
+        <v>46</v>
       </c>
       <c r="D1" t="s">
-        <v>68</v>
+        <v>47</v>
       </c>
       <c r="E1" t="s">
-        <v>59</v>
+        <v>38</v>
       </c>
       <c r="F1" t="s">
-        <v>60</v>
+        <v>39</v>
       </c>
       <c r="G1" t="s">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="H1" t="s">
-        <v>74</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
@@ -2668,22 +2560,22 @@
         <v>17444</v>
       </c>
       <c r="B2" t="s">
-        <v>62</v>
+        <v>41</v>
       </c>
       <c r="C2">
         <v>9743</v>
       </c>
       <c r="D2" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="E2">
         <v>200</v>
       </c>
       <c r="F2" t="s">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="G2" t="s">
-        <v>73</v>
+        <v>52</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
@@ -2694,22 +2586,22 @@
         <v>17422</v>
       </c>
       <c r="B3" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="C3">
         <v>9716</v>
       </c>
       <c r="D3" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="E3">
         <v>200</v>
       </c>
       <c r="F3" t="s">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="G3" t="s">
-        <v>75</v>
+        <v>54</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
@@ -2720,22 +2612,22 @@
         <v>17428</v>
       </c>
       <c r="B4" t="s">
-        <v>64</v>
+        <v>43</v>
       </c>
       <c r="C4">
         <v>9725</v>
       </c>
       <c r="D4" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="E4">
         <v>200</v>
       </c>
       <c r="F4" t="s">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="G4" t="s">
-        <v>75</v>
+        <v>54</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>

--- a/target/test-classes/testdata/usertestdata.xlsx
+++ b/target/test-classes/testdata/usertestdata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\eclipse\eclipse-workspace\NumpyNinja-Selenium\lms_automation\src\test\resources\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F67503E9-008B-4F9F-A602-435EA3ABDAD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F7E6778-A53E-4FF1-99B5-B1A0D0178543}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{B1C51ABA-3E92-4239-8245-29F0466D1FE3}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="499" uniqueCount="146">
   <si>
     <t>SampleLast</t>
   </si>
@@ -427,6 +427,48 @@
   </si>
   <si>
     <t>Submit</t>
+  </si>
+  <si>
+    <t>update valid data</t>
+  </si>
+  <si>
+    <t>User updated Successfully</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>f</t>
+  </si>
+  <si>
+    <t>i</t>
+  </si>
+  <si>
+    <t>r</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>w</t>
+  </si>
+  <si>
+    <t>under</t>
+  </si>
+  <si>
+    <t>Post</t>
+  </si>
+  <si>
+    <t>user</t>
+  </si>
+  <si>
+    <t>visa</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>update Invalid data</t>
   </si>
 </sst>
 </file>
@@ -866,10 +908,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47AA0240-4E7D-4B45-BDDD-9936E80CA8A2}">
-  <dimension ref="A1:S20"/>
+  <dimension ref="A1:S22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="U11" sqref="U11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1753,21 +1795,124 @@
       </c>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="H19" s="1"/>
-      <c r="M19" s="1"/>
-      <c r="N19" s="1"/>
-      <c r="O19" s="1"/>
+      <c r="A19" t="s">
+        <v>132</v>
+      </c>
+      <c r="B19" t="s">
+        <v>60</v>
+      </c>
+      <c r="C19" t="s">
+        <v>61</v>
+      </c>
+      <c r="D19" t="s">
+        <v>62</v>
+      </c>
+      <c r="E19" t="s">
+        <v>63</v>
+      </c>
+      <c r="F19" t="s">
+        <v>64</v>
+      </c>
+      <c r="G19" t="s">
+        <v>65</v>
+      </c>
+      <c r="H19" t="s">
+        <v>71</v>
+      </c>
+      <c r="I19" t="s">
+        <v>66</v>
+      </c>
+      <c r="J19" t="s">
+        <v>67</v>
+      </c>
+      <c r="K19" t="s">
+        <v>68</v>
+      </c>
+      <c r="L19" t="s">
+        <v>87</v>
+      </c>
+      <c r="M19" t="s">
+        <v>72</v>
+      </c>
+      <c r="N19" t="s">
+        <v>69</v>
+      </c>
+      <c r="O19" t="s">
+        <v>70</v>
+      </c>
+      <c r="R19" t="s">
+        <v>128</v>
+      </c>
+      <c r="S19" t="s">
+        <v>129</v>
+      </c>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="M20" s="1"/>
-      <c r="N20" s="1"/>
-      <c r="O20" s="1"/>
+      <c r="A20" t="s">
+        <v>145</v>
+      </c>
+      <c r="B20" t="s">
+        <v>134</v>
+      </c>
+      <c r="C20" t="s">
+        <v>135</v>
+      </c>
+      <c r="D20" t="s">
+        <v>136</v>
+      </c>
+      <c r="E20" t="s">
+        <v>137</v>
+      </c>
+      <c r="F20" t="s">
+        <v>138</v>
+      </c>
+      <c r="G20" t="s">
+        <v>139</v>
+      </c>
+      <c r="H20" t="s">
+        <v>71</v>
+      </c>
+      <c r="I20" t="s">
+        <v>140</v>
+      </c>
+      <c r="J20" t="s">
+        <v>141</v>
+      </c>
+      <c r="K20" t="s">
+        <v>142</v>
+      </c>
+      <c r="L20" t="s">
+        <v>143</v>
+      </c>
+      <c r="M20" t="s">
+        <v>144</v>
+      </c>
+      <c r="P20" t="s">
+        <v>133</v>
+      </c>
+      <c r="R20" t="s">
+        <v>128</v>
+      </c>
+      <c r="S20" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="H21" s="1"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
+      <c r="O21" s="1"/>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="M22" s="1"/>
+      <c r="N22" s="1"/>
+      <c r="O22" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="M2" r:id="rId1" xr:uid="{40159C53-F4E6-4203-9253-F0A8D36FA8E6}"/>
-    <hyperlink ref="M20" r:id="rId2" display="sample9@sample.com" xr:uid="{0BF1F079-FE55-4017-A95F-D160A11F5B5D}"/>
+    <hyperlink ref="M22" r:id="rId2" display="sample9@sample.com" xr:uid="{0BF1F079-FE55-4017-A95F-D160A11F5B5D}"/>
     <hyperlink ref="H2" r:id="rId3" xr:uid="{571EDCCE-FC5B-417C-AA30-F32CE06CAC18}"/>
     <hyperlink ref="M3" r:id="rId4" xr:uid="{CD418853-C9E8-40FA-8129-A630E1678CFF}"/>
     <hyperlink ref="H3" r:id="rId5" xr:uid="{C6E8536B-2300-445E-83A7-C82705F5ABBE}"/>
